--- a/Excel to PDF/excel_files/N19110969_D1.06_T-272.xlsx
+++ b/Excel to PDF/excel_files/N19110969_D1.06_T-272.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jaisw\OneDrive\Documents\GitHub\NPL\Excel to PDF\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NPL-main\Excel to PDF\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E19AFCD6-441D-4D70-BBEA-E52572DEFFDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A3FD058-8ADC-4148-BEA4-C2610F07C9D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>description</t>
   </si>
@@ -29,27 +29,12 @@
     <t>tracability</t>
   </si>
   <si>
-    <t>certificate_no</t>
-  </si>
-  <si>
-    <t>device_name</t>
-  </si>
-  <si>
     <t>end_date</t>
   </si>
   <si>
-    <t>next_date</t>
-  </si>
-  <si>
-    <t>calibrated_for</t>
-  </si>
-  <si>
     <t>procedure</t>
   </si>
   <si>
-    <t>calibrated_by</t>
-  </si>
-  <si>
     <t>checked_by</t>
   </si>
   <si>
@@ -68,9 +53,6 @@
     <t>result_desc</t>
   </si>
   <si>
-    <t>calibration_date</t>
-  </si>
-  <si>
     <t>env_conditions</t>
   </si>
   <si>
@@ -81,9 +63,6 @@
   </si>
   <si>
     <t>The data file is also being provided separately in electronic form.</t>
-  </si>
-  <si>
-    <t>Raman Analysis of given sample</t>
   </si>
   <si>
     <t>N19110969/D1.06/T-272</t>
@@ -121,6 +100,24 @@
   </si>
   <si>
     <t>(Dr. SANJAY YADAV)</t>
+  </si>
+  <si>
+    <t>tested_for</t>
+  </si>
+  <si>
+    <t>tested_by</t>
+  </si>
+  <si>
+    <t>testing_date</t>
+  </si>
+  <si>
+    <t>report_no</t>
+  </si>
+  <si>
+    <t>report_name</t>
+  </si>
+  <si>
+    <t>Raman Analysis of given sample</t>
   </si>
 </sst>
 </file>
@@ -133,7 +130,7 @@
     <numFmt numFmtId="166" formatCode="\ \ \ 000.000\ 0\ \ \ \ "/>
     <numFmt numFmtId="167" formatCode="0.000\ 0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,12 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Book Antiqua"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="10"/>
       <name val="Book Antiqua"/>
@@ -181,6 +172,19 @@
       <sz val="10"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -245,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -256,39 +260,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,127 +599,123 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="2" max="2" width="200.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.08984375" customWidth="1"/>
+    <col min="2" max="2" width="200.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" s="13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="B11" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -721,62 +724,62 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="3" max="3" width="17" customWidth="1"/>
-    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="19.54296875" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="8" max="14" width="8.77734375" customWidth="1"/>
+    <col min="6" max="6" width="16.54296875" customWidth="1"/>
+    <col min="8" max="14" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B2" s="10"/>
+      <c r="C2" s="11"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="4" spans="1:9" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>13</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B2" s="11"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="4" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
